--- a/biology/Botanique/Square_des_Émailleurs/Square_des_Émailleurs.xlsx
+++ b/biology/Botanique/Square_des_Émailleurs/Square_des_Émailleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_des_%C3%89mailleurs</t>
+          <t>Square_des_Émailleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square des Émailleurs est une place publique située dans la ville française de Limoges (Haute-Vienne). Il est occupé en son centre par un espace vert.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_des_%C3%89mailleurs</t>
+          <t>Square_des_Émailleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est initialement privé. Il est aménagé en même temps que ce secteur est loti à l'initiative de l'émailleur, mécène et entrepreneur Ernest Ruben, à partir des années 1860, qui en fait don à la ville[1],[2].
-Durement éprouvé par la tempête Martin en décembre 1999[3], le square est ensuite réaménagé et planté de nouveaux arbres. Des terrains sportifs et une fontaine monumentale y sont également installés.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est initialement privé. Il est aménagé en même temps que ce secteur est loti à l'initiative de l'émailleur, mécène et entrepreneur Ernest Ruben, à partir des années 1860, qui en fait don à la ville,.
+Durement éprouvé par la tempête Martin en décembre 1999, le square est ensuite réaménagé et planté de nouveaux arbres. Des terrains sportifs et une fontaine monumentale y sont également installés.
 </t>
         </is>
       </c>
